--- a/SuppXLS/Scen_AF_HYD.xlsx
+++ b/SuppXLS/Scen_AF_HYD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesajay\Downloads\OneDrive_2025-04-15\8760 - Model Student Team\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{8263710C-A816-4A9B-8FE3-0B3694F307E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D58DE272-FB09-48EF-ABA6-8E75CB394255}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320677A-113C-44F2-A10D-0541FB588B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COM_FR" sheetId="2" r:id="rId1"/>
@@ -792,17 +792,17 @@
   <dimension ref="B1:V579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H556" sqref="H556:H579"/>
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="9" max="9" width="2.59765625" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -812,7 +812,7 @@
       <c r="H1" s="3"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -899,7 +899,7 @@
         <v>7.4318355359494744E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3.6377724139059243E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>5.0053199433954297E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -968,7 +968,7 @@
         <v>7.4975533790847477E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -991,7 +991,7 @@
         <v>5.9725344895860824E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>6.009119364462601E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1.2149122422112961E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1.6882079778571413E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1.913062360134685E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>2.0733473515519945E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>2.1119914672901727E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>2.0814524499844042E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1.9853519875834863E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1.6965185403814805E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1.2548305419822645E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>1.5311107464929849E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2.3218270377732695E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>2.6001986827421449E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>3.179469423714508E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2.9462845458290789E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>2.1064991361163389E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1.7122150770164733E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1.3939726650143138E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4.0313803491823846E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2.579639241187464E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>3.57228546507804E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5.8735651457351842E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>4.6237299200650424E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>9.9192189785532979E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1.8905575260757441E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2.2768762843814367E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1.8268860720215985E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>5.0172093868588816E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>4.9827240112837569E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>4.9498097840939108E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>7.38242681790666E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>9.7327050244774959E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1.9565670619642518E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>3.0448110076904521E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>2.2418609790967031E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>2.7495416297931799E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>3.137239803121878E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>3.2409089669164365E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>3.3483462238722943E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>2.9030987492652961E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>1.7533004053600237E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>7</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>5.8232988729978409E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1.6832927373893723E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1.8106498417167983E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>8.8100912057314969E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>4.8990779940031549E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>5.3880579899169539E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>6.6021944930153348E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1.1899952401026731E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>2.4806525654058612E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>7</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>4.8058383366947739E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1.6440126610691132E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1.3988428863003109E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>8.6435458868151516E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>8.6169978464583803E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>1.018645552637332E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1.1285397418373465E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>2.6740949992580636E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1.5466300396773757E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>7</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1.3561363674011324E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>1.3282471457668227E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1.2676735201223444E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>2.9434795264076455E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>3.5239170620418599E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>2.2231733186377257E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>1.9828075151047404E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>7</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>1.6796744859143019E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1.3446691497726204E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1.3473069689567652E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1.1460300964060952E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1.6860770043176678E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>8.5913333874143537E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1.7960788937824095E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>1.2893485390711152E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>1.3826082108718803E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1.4247995192871709E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>2.0777023128339518E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1.8950603564551492E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>2.7938874694933204E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>7</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>2.8131985136862339E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1.3445518622587648E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1.0756460893173588E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1.7566495913306411E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>1.3233251220062229E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1.2866900220904072E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1.3832383437894532E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>2.0435739460573848E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1.7873513228985102E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1.3827392969167768E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1.6139833612957084E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>7.811786227971431E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>3.8237525986659412E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>5.2612156460230082E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>7.8808638790379554E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>6.2778787886446762E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>6.3163340558972953E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>7</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>1.2770243200339596E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>1.7745171791790811E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2.0108671842724503E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2.1793467049033236E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>2.2199664911802634E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>2.1878661744212349E-2</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="9" t="s">
         <v>7</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>2.0868526004456277E-2</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1.7832526170881002E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1.3189834326766542E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>7</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1.6093883920192113E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>2.4405298515653592E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2.7331331757248722E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>3.3420189852541048E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>3.0969125900943691E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2.2141933659791377E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>1.79975163514615E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>1.4652391611806899E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>7</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>4.2374836390178857E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="9" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>2.7115226379761893E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>3.7549176463192485E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>6.173849662388313E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>4.8601169302933166E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="9" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>1.0426336513244162E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1.9872117963250151E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="9" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>2.3932810023968479E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>2.3815163569948044E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1.9202851554582855E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>5.273712934244305E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="9" t="s">
         <v>7</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>5.2374645026581823E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>5.2028675440169122E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="9" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>7.7598515018487187E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>1.0230287080943626E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="9" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2.0565960528622196E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>3.2004761921327042E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>2.3564755485801746E-2</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>2.8901112427682913E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="9" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>3.2976303861035693E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>3.4065996093968272E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>3.5195295686510419E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>7</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>3.0515189307205773E-2</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="9" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1.8429374403988796E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>6.1210135393065237E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1.7693506482988498E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>1.903218852029518E-2</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="9" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>9.2605048665562167E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>5.149542104126016E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="9" t="s">
         <v>7</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>5.6635210773360208E-3</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>6.9397299987932161E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="9" t="s">
         <v>7</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1.2508334425619102E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
         <v>7</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2.6074752936985947E-2</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="9" t="s">
         <v>7</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>5.0515355931720123E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>1.7280623881176363E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="9" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1.4703583712849895E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>7</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>9.0854449607832063E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="9" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>9.0575396586495046E-3</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>7</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1.0707235461259483E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="9" t="s">
         <v>7</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1.1862360476572518E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>7</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>2.8108074225330161E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="9" t="s">
         <v>7</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1.6257011051005545E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>7</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>1.4254684925238898E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>1.3961534415626725E-2</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>7</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>1.3324830047911759E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
         <v>7</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>3.0939641647720447E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
         <v>7</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>3.7040764210419554E-2</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="9" t="s">
         <v>7</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>2.3368324862572416E-2</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>7</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>2.0841780424618338E-2</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="9" t="s">
         <v>7</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1.7655474146420269E-2</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
         <v>7</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1.4134150163254131E-2</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="9" t="s">
         <v>7</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1.4161876933410578E-2</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
         <v>7</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1.2046205921323784E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="9" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>1.7722772601621296E-2</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="6" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>9.0305631106972969E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
         <v>7</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>1.8879029681066636E-2</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>1.3552661535430537E-2</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1.4532937022252486E-2</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
         <v>7</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1.4976420304981716E-2</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="9" t="s">
         <v>7</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>2.1839243124675896E-2</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>1.9919448327565373E-2</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
         <v>7</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>2.9367242521872533E-2</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
         <v>7</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>2.9570225685781684E-2</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
         <v>7</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1.4132917325173929E-2</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>1.130638220673052E-2</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="9" t="s">
         <v>7</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>1.8464578526461137E-2</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1.3909797805954981E-2</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="9" t="s">
         <v>7</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1.3524717205612871E-2</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1.4539560505271554E-2</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="9" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>2.1480511416635904E-2</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="6" t="s">
         <v>7</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1.8787292023922993E-2</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="9" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>1.4534314900106817E-2</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>1.5700227249958252E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="9" t="s">
         <v>7</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>7.5990138404391353E-4</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
         <v>7</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>3.7196036952003318E-4</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="9" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>5.1179140525515641E-4</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>7.66620999906416E-4</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="9" t="s">
         <v>7</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>6.1068859811718639E-4</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>7</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>6.1442938286938669E-4</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="9" t="s">
         <v>7</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>1.2422415564532681E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
         <v>7</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>1.7261840264387947E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="9" t="s">
         <v>7</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1.9560964827553019E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
         <v>7</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>2.1199870670265794E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="9" t="s">
         <v>7</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>2.1595004778018128E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
         <v>7</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>2.1282744887366097E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="9" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>2.0300122572428285E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
         <v>7</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1.7346815341323933E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="9" t="s">
         <v>7</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>1.2830578138877959E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1.5655529105245247E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="9" t="s">
         <v>7</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>2.3740562758417893E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
         <v>7</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>2.6586898596545451E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="9" t="s">
         <v>7</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>3.2509912307919307E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
         <v>7</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>3.0125608853058066E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
         <v>7</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>2.1538845972559704E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
         <v>7</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1.7507311625935312E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="9" t="s">
         <v>7</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>1.4253299233275194E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>4.1220657967100052E-4</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="9" t="s">
         <v>7</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>2.6376679357745036E-4</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
         <v>7</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>3.652643624824172E-4</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="9" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>6.005690333062561E-4</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
         <v>7</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>4.7277402045654832E-4</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="9" t="s">
         <v>7</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1.0142350693817278E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
         <v>7</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>1.9330854049854234E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="9" t="s">
         <v>7</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>2.3280943603082175E-3</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>2.316650152718681E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="9" t="s">
         <v>7</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1.8679816687337408E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>5.1300709477084677E-4</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="9" t="s">
         <v>7</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>5.0948098274885049E-4</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>5.0611551984600317E-4</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="9" t="s">
         <v>7</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>7.5484936788411654E-4</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="6" t="s">
         <v>7</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>9.9516411293225924E-4</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="9" t="s">
         <v>7</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>2.000579817959358E-3</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
         <v>7</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>3.1133036888450431E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="9" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>2.2922913896694305E-3</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>2.811392259502229E-3</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="9" t="s">
         <v>7</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>3.207811659633822E-3</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="6" t="s">
         <v>7</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>3.3138128496078083E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="9" t="s">
         <v>7</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>3.4236668955749438E-3</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
         <v>7</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>2.9684036291056201E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="9" t="s">
         <v>7</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>1.7927407007771203E-3</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>5.9542933261736613E-4</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="9" t="s">
         <v>7</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1.7211582181895426E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="6" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1.851380206254395E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="9" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>9.0082732164943743E-4</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="6" t="s">
         <v>7</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>5.0092822024572139E-4</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="9" t="s">
         <v>7</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>5.509261748381344E-4</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="6" t="s">
         <v>7</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>6.7507101155576032E-4</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="9" t="s">
         <v>7</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1.2167640491847374E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>2.536454565854664E-3</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="9" t="s">
         <v>7</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>4.9139451295447589E-3</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>1.6809945409704634E-3</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="9" t="s">
         <v>7</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>1.4303096996935696E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="6" t="s">
         <v>7</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>8.8379814793610964E-4</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="9" t="s">
         <v>7</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>8.8108362438224757E-4</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="6" t="s">
         <v>7</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>1.0415598697723232E-3</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="9" t="s">
         <v>7</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1.1539261163981049E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="6" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>2.7342484654990428E-3</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="9" t="s">
         <v>7</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1.5814213084635745E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="6" t="s">
         <v>7</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1.3866425024551458E-3</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="9" t="s">
         <v>7</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1.3581259159169967E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="6" t="s">
         <v>7</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1.2961896933766303E-3</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="9" t="s">
         <v>7</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>3.009692767287981E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="6" t="s">
         <v>7</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>3.6031871800019022E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="9" t="s">
         <v>7</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>2.2731833523903129E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
         <v>7</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>2.0274105471418617E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="9" t="s">
         <v>7</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>1.717458574554501E-3</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="6" t="s">
         <v>7</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1.3749173310558492E-3</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="9" t="s">
         <v>7</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>1.377614487685854E-3</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="6" t="s">
         <v>7</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1.1718099145256598E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="9" t="s">
         <v>7</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1.7240051168892312E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="6" t="s">
         <v>7</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>8.7845944656588502E-4</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="9" t="s">
         <v>7</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1.8364814864850814E-3</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="6" t="s">
         <v>7</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1.3183522894387682E-3</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="9" t="s">
         <v>7</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>1.4137098270673623E-3</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="6" t="s">
         <v>7</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>1.4568502242200112E-3</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="9" t="s">
         <v>7</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>2.1244399926727523E-3</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="6" t="s">
         <v>7</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1.9376895260277602E-3</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="9" t="s">
         <v>7</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>2.8567356538786509E-3</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="6" t="s">
         <v>7</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>2.8764810978386852E-3</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="9" t="s">
         <v>7</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>1.3747974051725612E-3</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="6" t="s">
         <v>7</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>1.0998426271138638E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="9" t="s">
         <v>7</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1.7961652263094492E-3</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="6" t="s">
         <v>7</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1.3530931717855039E-3</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="9" t="s">
         <v>7</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>1.3156339694175945E-3</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="6" t="s">
         <v>7</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>1.4143541347540422E-3</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="9" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>2.0895439121241155E-3</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
         <v>7</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>1.8275575898757774E-3</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="9" t="s">
         <v>7</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>1.4138438618780948E-3</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="6" t="s">
         <v>7</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>1.8840272699949903E-3</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="9" t="s">
         <v>7</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>9.1188166085269626E-4</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="s">
         <v>7</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>4.4635244342403979E-4</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="9" t="s">
         <v>7</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>6.1414968630618769E-4</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="6" t="s">
         <v>7</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>9.1994519988769909E-4</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="9" t="s">
         <v>7</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>7.3282631774062364E-4</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="6" t="s">
         <v>7</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>7.3731525944326396E-4</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="9" t="s">
         <v>7</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>1.4906898677439218E-3</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="6" t="s">
         <v>7</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2.0714208317265535E-3</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="9" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>2.3473157793063621E-3</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="6" t="s">
         <v>7</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>2.5439844804318952E-3</v>
       </c>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="9" t="s">
         <v>7</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>2.5914005733621752E-3</v>
       </c>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
         <v>7</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>2.5539293864839316E-3</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="9" t="s">
         <v>7</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>2.4360147086913944E-3</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="6" t="s">
         <v>7</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>2.081617840958872E-3</v>
       </c>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="9" t="s">
         <v>7</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1.5396693766653552E-3</v>
       </c>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="6" t="s">
         <v>7</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>1.8786634926294295E-3</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="9" t="s">
         <v>7</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>2.848867531010147E-3</v>
       </c>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="6" t="s">
         <v>7</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>3.1904278315854537E-3</v>
       </c>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="9" t="s">
         <v>7</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>3.9011894769503167E-3</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="6" t="s">
         <v>7</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>3.6150730623669678E-3</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="9" t="s">
         <v>7</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>2.5846615167071643E-3</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="6" t="s">
         <v>7</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>2.1008773951122373E-3</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="9" t="s">
         <v>7</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>1.7103959079930232E-3</v>
       </c>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="6" t="s">
         <v>7</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>4.9464789560520065E-4</v>
       </c>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="9" t="s">
         <v>7</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>3.165201522929404E-4</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="6" t="s">
         <v>7</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>4.3831723497890062E-4</v>
       </c>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="9" t="s">
         <v>7</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>7.2068283996750727E-4</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="6" t="s">
         <v>7</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>5.6732882454785802E-4</v>
       </c>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="9" t="s">
         <v>7</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1.2170820832580734E-3</v>
       </c>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
         <v>7</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>2.319702485982508E-3</v>
       </c>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="9" t="s">
         <v>7</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>2.793713232369861E-3</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="6" t="s">
         <v>7</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>2.7799801832624174E-3</v>
       </c>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="9" t="s">
         <v>7</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>2.2415780024804891E-3</v>
       </c>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="6" t="s">
         <v>7</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>6.156085137250161E-4</v>
       </c>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="9" t="s">
         <v>7</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>6.1137717929862052E-4</v>
       </c>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
         <v>7</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>6.0733862381520372E-4</v>
       </c>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="9" t="s">
         <v>7</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>9.0581924146093987E-4</v>
       </c>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="6" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>1.1941969355187111E-3</v>
       </c>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="9" t="s">
         <v>7</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>2.4006957815512291E-3</v>
       </c>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="6" t="s">
         <v>7</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>3.7359644266140518E-3</v>
       </c>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="9" t="s">
         <v>7</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>2.7507496676033166E-3</v>
       </c>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="6" t="s">
         <v>7</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>3.3736707114026747E-3</v>
       </c>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="9" t="s">
         <v>7</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>3.8493739915605864E-3</v>
       </c>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="6" t="s">
         <v>7</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>3.97657541952937E-3</v>
       </c>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="9" t="s">
         <v>7</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>4.1084002746899322E-3</v>
       </c>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
         <v>7</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>3.5620843549267439E-3</v>
       </c>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="9" t="s">
         <v>7</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>2.1512888409325444E-3</v>
       </c>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="6" t="s">
         <v>7</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>7.1451519914083933E-4</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="9" t="s">
         <v>7</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>2.0653898618274509E-3</v>
       </c>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="6" t="s">
         <v>7</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>2.2216562475052739E-3</v>
       </c>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="9" t="s">
         <v>7</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>1.0809927859793248E-3</v>
       </c>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
         <v>7</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>6.0111386429486562E-4</v>
       </c>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="9" t="s">
         <v>7</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>6.6111140980576119E-4</v>
       </c>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
         <v>7</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>8.1008521386691235E-4</v>
       </c>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="9" t="s">
         <v>7</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>1.460116859021685E-3</v>
       </c>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="6" t="s">
         <v>7</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>3.043745479025597E-3</v>
       </c>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="9" t="s">
         <v>7</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>5.8967341554537105E-3</v>
       </c>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="6" t="s">
         <v>7</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>2.0171934491645563E-3</v>
       </c>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="9" t="s">
         <v>7</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>1.7163716396322833E-3</v>
       </c>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="6" t="s">
         <v>7</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>1.0605577775233315E-3</v>
       </c>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="9" t="s">
         <v>7</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>1.057300349258697E-3</v>
       </c>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="6" t="s">
         <v>7</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1.2498718437267877E-3</v>
       </c>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="9" t="s">
         <v>7</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1.3847113396777259E-3</v>
       </c>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
         <v>7</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>3.2810981585988512E-3</v>
       </c>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="9" t="s">
         <v>7</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1.8977055701562893E-3</v>
       </c>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="6" t="s">
         <v>7</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1.6639710029461748E-3</v>
       </c>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="9" t="s">
         <v>7</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1.6297510991003959E-3</v>
       </c>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="6" t="s">
         <v>7</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1.5554276320519564E-3</v>
       </c>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="9" t="s">
         <v>7</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>3.6116313207455774E-3</v>
       </c>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="6" t="s">
         <v>7</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>4.3238246160022826E-3</v>
       </c>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="9" t="s">
         <v>7</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>2.7278200228683753E-3</v>
       </c>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="6" t="s">
         <v>7</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>2.4328926565702338E-3</v>
       </c>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="9" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>2.0609502894654011E-3</v>
       </c>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="6" t="s">
         <v>7</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>1.649900797267019E-3</v>
       </c>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="9" t="s">
         <v>7</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>1.6531373852230248E-3</v>
       </c>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
         <v>7</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1.4061718974307917E-3</v>
       </c>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="9" t="s">
         <v>7</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>2.0688061402670773E-3</v>
       </c>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="6" t="s">
         <v>7</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1.0541513358790619E-3</v>
       </c>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="9" t="s">
         <v>7</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>2.2037777837820975E-3</v>
       </c>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="6" t="s">
         <v>7</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1.5820227473265218E-3</v>
       </c>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="9" t="s">
         <v>7</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>1.6964517924808347E-3</v>
       </c>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="6" t="s">
         <v>7</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1.7482202690640135E-3</v>
       </c>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="9" t="s">
         <v>7</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>2.549327991207303E-3</v>
       </c>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="6" t="s">
         <v>7</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>2.3252274312333121E-3</v>
       </c>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="9" t="s">
         <v>7</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>3.4280827846543812E-3</v>
       </c>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
         <v>7</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>3.4517773174064224E-3</v>
       </c>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="9" t="s">
         <v>7</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>1.6497568862070733E-3</v>
       </c>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="6" t="s">
         <v>7</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>1.3198111525366367E-3</v>
       </c>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="9" t="s">
         <v>7</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>2.155398271571339E-3</v>
       </c>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="6" t="s">
         <v>7</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>1.6237118061426048E-3</v>
       </c>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="9" t="s">
         <v>7</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>1.5787607633011133E-3</v>
       </c>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
         <v>7</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>1.6972249617048507E-3</v>
       </c>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="9" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>2.5074526945489382E-3</v>
       </c>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
         <v>7</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>2.1930691078509328E-3</v>
       </c>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="9" t="s">
         <v>7</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>1.6966126342537139E-3</v>
       </c>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
         <v>7</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3.0144436319919838E-3</v>
       </c>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="9" t="s">
         <v>7</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>1.4590106573643138E-3</v>
       </c>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
         <v>7</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>7.1416390947846365E-4</v>
       </c>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="9" t="s">
         <v>7</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>9.8263949808990027E-4</v>
       </c>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
         <v>7</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>1.4719123198203184E-3</v>
       </c>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="9" t="s">
         <v>7</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1.1725221083849977E-3</v>
       </c>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
         <v>7</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1.1797044151092223E-3</v>
       </c>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="9" t="s">
         <v>7</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>2.3851037883902745E-3</v>
       </c>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="6" t="s">
         <v>7</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>3.3142733307624855E-3</v>
       </c>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="9" t="s">
         <v>7</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>3.7557052468901787E-3</v>
       </c>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="6" t="s">
         <v>7</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>4.0703751686910318E-3</v>
       </c>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="9" t="s">
         <v>7</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>4.1462409173794804E-3</v>
       </c>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
         <v>7</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>4.08628701837429E-3</v>
       </c>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="9" t="s">
         <v>7</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>3.8976235339062302E-3</v>
       </c>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
         <v>7</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>3.3305885455341949E-3</v>
       </c>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="9" t="s">
         <v>7</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>2.4634710026645678E-3</v>
       </c>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
         <v>7</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>3.0058615882070871E-3</v>
       </c>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="9" t="s">
         <v>7</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>4.5581880496162342E-3</v>
       </c>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
         <v>7</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>5.1046845305367256E-3</v>
       </c>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="9" t="s">
         <v>7</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>6.2419031631205059E-3</v>
       </c>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
         <v>7</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>5.7841168997871482E-3</v>
       </c>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="9" t="s">
         <v>7</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>4.1354584267314625E-3</v>
       </c>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="6" t="s">
         <v>7</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>3.3614038321795794E-3</v>
       </c>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="9" t="s">
         <v>7</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>2.7366334527888368E-3</v>
       </c>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="6" t="s">
         <v>7</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>7.9143663296832084E-4</v>
       </c>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="9" t="s">
         <v>7</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>5.0643224366870459E-4</v>
       </c>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
         <v>7</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>7.0130757596624093E-4</v>
       </c>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="9" t="s">
         <v>7</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1.1530925439480115E-3</v>
       </c>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="6" t="s">
         <v>7</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>9.0772611927657264E-4</v>
       </c>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="9" t="s">
         <v>7</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>1.9473313332129172E-3</v>
       </c>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
         <v>7</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>3.7115239775720125E-3</v>
       </c>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="9" t="s">
         <v>7</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>4.4699411717917777E-3</v>
       </c>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="6" t="s">
         <v>7</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>4.4479682932198669E-3</v>
       </c>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="9" t="s">
         <v>7</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>3.586524803968782E-3</v>
       </c>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
         <v>7</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>9.8497362196002568E-4</v>
       </c>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="9" t="s">
         <v>7</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>9.7820348687779283E-4</v>
       </c>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
         <v>7</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>9.7174179810432593E-4</v>
       </c>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="9" t="s">
         <v>7</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1.4493107863375037E-3</v>
       </c>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
         <v>7</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>1.9107150968299376E-3</v>
       </c>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="9" t="s">
         <v>7</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>3.8411132504819665E-3</v>
       </c>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
         <v>7</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>5.9775430825824817E-3</v>
       </c>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B429" s="9" t="s">
         <v>7</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>4.4011994681653066E-3</v>
       </c>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B430" s="6" t="s">
         <v>7</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>5.397873138244279E-3</v>
       </c>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B431" s="9" t="s">
         <v>7</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>6.1589983864969375E-3</v>
       </c>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B432" s="6" t="s">
         <v>7</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>6.3625206712469911E-3</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B433" s="9" t="s">
         <v>7</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>6.5734404395038906E-3</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
         <v>7</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>5.6993349678827899E-3</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B435" s="9" t="s">
         <v>7</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>3.4420621454920707E-3</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
         <v>7</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1.1432243186253429E-3</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B437" s="9" t="s">
         <v>7</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>3.304623778923921E-3</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
         <v>7</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>3.5546499960084381E-3</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B439" s="9" t="s">
         <v>7</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1.7295884575669195E-3</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B440" s="6" t="s">
         <v>7</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>9.6178218287178488E-4</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B441" s="9" t="s">
         <v>7</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>1.0577782556892177E-3</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B442" s="6" t="s">
         <v>7</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>1.2961363421870595E-3</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B443" s="9" t="s">
         <v>7</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>2.3361869744346958E-3</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B444" s="6" t="s">
         <v>7</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>4.8699927664409542E-3</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B445" s="9" t="s">
         <v>7</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>9.4347746487259358E-3</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B446" s="6" t="s">
         <v>7</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>3.2275095186632893E-3</v>
       </c>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B447" s="9" t="s">
         <v>7</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>2.746194623411653E-3</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B448" s="6" t="s">
         <v>7</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>1.6968924440373303E-3</v>
       </c>
     </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B449" s="9" t="s">
         <v>7</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1.6916805588139152E-3</v>
       </c>
     </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="450" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B450" s="6" t="s">
         <v>7</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>1.9997949499628602E-3</v>
       </c>
     </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="451" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B451" s="9" t="s">
         <v>7</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>2.2155381434843611E-3</v>
       </c>
     </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="452" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B452" s="6" t="s">
         <v>7</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>5.2497570537581618E-3</v>
       </c>
     </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="453" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B453" s="9" t="s">
         <v>7</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>3.0363289122500624E-3</v>
       </c>
     </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="454" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B454" s="6" t="s">
         <v>7</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>2.6623536047138793E-3</v>
       </c>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="455" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B455" s="9" t="s">
         <v>7</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>2.6076017585606333E-3</v>
       </c>
     </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="456" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B456" s="6" t="s">
         <v>7</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>2.48868421128313E-3</v>
       </c>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="457" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B457" s="9" t="s">
         <v>7</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>5.7786101131929229E-3</v>
       </c>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="458" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B458" s="6" t="s">
         <v>7</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>6.9181193856036509E-3</v>
       </c>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="459" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B459" s="9" t="s">
         <v>7</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>4.3645120365894E-3</v>
       </c>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="460" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B460" s="6" t="s">
         <v>7</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>3.8926282505123734E-3</v>
       </c>
     </row>
-    <row r="461" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="461" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B461" s="9" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>3.2975204631446415E-3</v>
       </c>
     </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="462" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B462" s="6" t="s">
         <v>7</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>2.6398412756272302E-3</v>
       </c>
     </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="463" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B463" s="9" t="s">
         <v>7</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>2.6450198163568395E-3</v>
       </c>
     </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="464" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B464" s="6" t="s">
         <v>7</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>2.2498750358892665E-3</v>
       </c>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="465" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B465" s="9" t="s">
         <v>7</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>3.3100898244273233E-3</v>
       </c>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="466" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B466" s="6" t="s">
         <v>7</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>1.6866421374064989E-3</v>
       </c>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="467" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B467" s="9" t="s">
         <v>7</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>3.5260444540513559E-3</v>
       </c>
     </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="468" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B468" s="6" t="s">
         <v>7</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>2.5312363957224345E-3</v>
       </c>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="469" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B469" s="9" t="s">
         <v>7</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>2.7143228679693352E-3</v>
       </c>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="470" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B470" s="6" t="s">
         <v>7</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>2.7971524305024213E-3</v>
       </c>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="471" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B471" s="9" t="s">
         <v>7</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>4.0789247859316837E-3</v>
       </c>
     </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="472" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
         <v>7</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>3.720363889973299E-3</v>
       </c>
     </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="473" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B473" s="9" t="s">
         <v>7</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>5.4849324554470096E-3</v>
       </c>
     </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="474" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B474" s="6" t="s">
         <v>7</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>5.5228437078502753E-3</v>
       </c>
     </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="475" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B475" s="9" t="s">
         <v>7</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>2.6396110179313171E-3</v>
       </c>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="476" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B476" s="6" t="s">
         <v>7</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>2.1116978440586186E-3</v>
       </c>
     </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="477" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B477" s="9" t="s">
         <v>7</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>3.4486372345141417E-3</v>
       </c>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="478" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B478" s="6" t="s">
         <v>7</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>2.5979388898281675E-3</v>
       </c>
     </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="479" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B479" s="9" t="s">
         <v>7</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>2.5260172212817809E-3</v>
       </c>
     </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="480" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B480" s="6" t="s">
         <v>7</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>2.7155599387277607E-3</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B481" s="9" t="s">
         <v>7</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>4.0119243112783009E-3</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B482" s="6" t="s">
         <v>7</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>3.5089105725614922E-3</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B483" s="9" t="s">
         <v>7</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>2.714580214805942E-3</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B484" s="6" t="s">
         <v>7</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1.5072218159959919E-3</v>
       </c>
     </row>
-    <row r="485" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="485" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B485" s="9" t="s">
         <v>7</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>7.2950532868215688E-4</v>
       </c>
     </row>
-    <row r="486" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="486" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B486" s="6" t="s">
         <v>7</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>3.5708195473923182E-4</v>
       </c>
     </row>
-    <row r="487" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="487" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B487" s="9" t="s">
         <v>7</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>4.9131974904495013E-4</v>
       </c>
     </row>
-    <row r="488" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="488" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B488" s="6" t="s">
         <v>7</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>7.3595615991015918E-4</v>
       </c>
     </row>
-    <row r="489" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="489" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B489" s="9" t="s">
         <v>7</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>5.8626105419249883E-4</v>
       </c>
     </row>
-    <row r="490" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="490" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B490" s="6" t="s">
         <v>7</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>5.8985220755461117E-4</v>
       </c>
     </row>
-    <row r="491" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="491" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B491" s="9" t="s">
         <v>7</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>1.1925518941951372E-3</v>
       </c>
     </row>
-    <row r="492" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="492" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B492" s="6" t="s">
         <v>7</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>1.6571366653812428E-3</v>
       </c>
     </row>
-    <row r="493" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="493" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B493" s="9" t="s">
         <v>7</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>1.8778526234450893E-3</v>
       </c>
     </row>
-    <row r="494" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="494" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B494" s="6" t="s">
         <v>7</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>2.0351875843455159E-3</v>
       </c>
     </row>
-    <row r="495" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="495" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B495" s="9" t="s">
         <v>7</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>2.0731204586897402E-3</v>
       </c>
     </row>
-    <row r="496" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="496" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B496" s="6" t="s">
         <v>7</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>2.043143509187145E-3</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B497" s="9" t="s">
         <v>7</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1.9488117669531151E-3</v>
       </c>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B498" s="6" t="s">
         <v>7</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>1.6652942727670974E-3</v>
       </c>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B499" s="9" t="s">
         <v>7</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>1.2317355013322839E-3</v>
       </c>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B500" s="6" t="s">
         <v>7</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>1.5029307941035435E-3</v>
       </c>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B501" s="9" t="s">
         <v>7</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>2.2790940248081171E-3</v>
       </c>
     </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B502" s="6" t="s">
         <v>7</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>2.5523422652683628E-3</v>
       </c>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B503" s="9" t="s">
         <v>7</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>3.1209515815602529E-3</v>
       </c>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B504" s="6" t="s">
         <v>7</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>2.8920584498935741E-3</v>
       </c>
     </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B505" s="9" t="s">
         <v>7</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>2.0677292133657313E-3</v>
       </c>
     </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="506" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B506" s="6" t="s">
         <v>7</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1.6807019160897897E-3</v>
       </c>
     </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="507" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B507" s="9" t="s">
         <v>7</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1.3683167263944184E-3</v>
       </c>
     </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="508" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B508" s="6" t="s">
         <v>7</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>3.9571831648416042E-4</v>
       </c>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="509" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B509" s="9" t="s">
         <v>7</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>2.532161218343523E-4</v>
       </c>
     </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="510" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B510" s="6" t="s">
         <v>7</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>3.5065378798312046E-4</v>
       </c>
     </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="511" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B511" s="9" t="s">
         <v>7</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>5.7654627197400575E-4</v>
       </c>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="512" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B512" s="6" t="s">
         <v>7</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>4.5386305963828632E-4</v>
       </c>
     </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="513" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B513" s="9" t="s">
         <v>7</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>9.7366566660645859E-4</v>
       </c>
     </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="514" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B514" s="6" t="s">
         <v>7</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>1.8557619887860062E-3</v>
       </c>
     </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="515" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B515" s="9" t="s">
         <v>7</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>2.2349705858958888E-3</v>
       </c>
     </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="516" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B516" s="6" t="s">
         <v>7</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>2.2239841466099334E-3</v>
       </c>
     </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="517" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B517" s="9" t="s">
         <v>7</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1.793262401984391E-3</v>
       </c>
     </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="518" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B518" s="6" t="s">
         <v>7</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>4.9248681098001284E-4</v>
       </c>
     </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="519" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B519" s="9" t="s">
         <v>7</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>4.8910174343889641E-4</v>
       </c>
     </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="520" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B520" s="6" t="s">
         <v>7</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>4.8587089905216297E-4</v>
       </c>
     </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="521" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B521" s="9" t="s">
         <v>7</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>7.2465539316875183E-4</v>
       </c>
     </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="522" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B522" s="6" t="s">
         <v>7</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>9.5535754841496881E-4</v>
       </c>
     </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="523" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B523" s="9" t="s">
         <v>7</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>1.9205566252409832E-3</v>
       </c>
     </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="524" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B524" s="6" t="s">
         <v>7</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>2.9887715412912409E-3</v>
       </c>
     </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="525" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B525" s="9" t="s">
         <v>7</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>2.2005997340826533E-3</v>
       </c>
     </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="526" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B526" s="6" t="s">
         <v>7</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>2.6989365691221395E-3</v>
       </c>
     </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="527" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B527" s="9" t="s">
         <v>7</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>3.0794991932484687E-3</v>
       </c>
     </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="528" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B528" s="6" t="s">
         <v>7</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>3.1812603356234956E-3</v>
       </c>
     </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B529" s="9" t="s">
         <v>7</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>3.2867202197519453E-3</v>
       </c>
     </row>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B530" s="6" t="s">
         <v>7</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>2.8496674839413949E-3</v>
       </c>
     </row>
-    <row r="531" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B531" s="9" t="s">
         <v>7</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>1.7210310727460354E-3</v>
       </c>
     </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B532" s="6" t="s">
         <v>7</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>5.7161215931267144E-4</v>
       </c>
     </row>
-    <row r="533" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B533" s="9" t="s">
         <v>7</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1.6523118894619605E-3</v>
       </c>
     </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B534" s="6" t="s">
         <v>7</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>1.777324998004219E-3</v>
       </c>
     </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B535" s="9" t="s">
         <v>7</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>8.6479422878345973E-4</v>
       </c>
     </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B536" s="6" t="s">
         <v>7</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>4.8089109143589244E-4</v>
       </c>
     </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B537" s="9" t="s">
         <v>7</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>5.2888912784460887E-4</v>
       </c>
     </row>
-    <row r="538" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="538" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B538" s="6" t="s">
         <v>7</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>6.4806817109352977E-4</v>
       </c>
     </row>
-    <row r="539" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="539" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B539" s="9" t="s">
         <v>7</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>1.1680934872173479E-3</v>
       </c>
     </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="540" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B540" s="6" t="s">
         <v>7</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>2.4349963832204771E-3</v>
       </c>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="541" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B541" s="9" t="s">
         <v>7</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>4.7173873243629679E-3</v>
       </c>
     </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="542" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B542" s="6" t="s">
         <v>7</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>1.6137547593316447E-3</v>
       </c>
     </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="543" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B543" s="9" t="s">
         <v>7</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1.3730973117058265E-3</v>
       </c>
     </row>
-    <row r="544" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="544" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B544" s="6" t="s">
         <v>7</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>8.4844622201866516E-4</v>
       </c>
     </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="545" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B545" s="9" t="s">
         <v>7</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>8.4584027940695758E-4</v>
       </c>
     </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="546" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B546" s="6" t="s">
         <v>7</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>9.9989747498143008E-4</v>
       </c>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="547" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B547" s="9" t="s">
         <v>7</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>1.1077690717421805E-3</v>
       </c>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="548" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B548" s="6" t="s">
         <v>7</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>2.6248785268790809E-3</v>
       </c>
     </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="549" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B549" s="9" t="s">
         <v>7</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1.5181644561250312E-3</v>
       </c>
     </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="550" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B550" s="6" t="s">
         <v>7</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>1.3311768023569397E-3</v>
       </c>
     </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="551" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B551" s="9" t="s">
         <v>7</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>1.3038008792803167E-3</v>
       </c>
     </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="552" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B552" s="6" t="s">
         <v>7</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>1.244342105641565E-3</v>
       </c>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="553" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B553" s="9" t="s">
         <v>7</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>2.8893050565964615E-3</v>
       </c>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="554" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B554" s="6" t="s">
         <v>7</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>3.4590596928018255E-3</v>
       </c>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="555" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B555" s="9" t="s">
         <v>7</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>2.1822560182947E-3</v>
       </c>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="556" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B556" s="6" t="s">
         <v>7</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1.9463141252561867E-3</v>
       </c>
     </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="557" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B557" s="9" t="s">
         <v>7</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1.6487602315723208E-3</v>
       </c>
     </row>
-    <row r="558" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="558" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B558" s="6" t="s">
         <v>7</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>1.3199206378136151E-3</v>
       </c>
     </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="559" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B559" s="9" t="s">
         <v>7</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1.3225099081784198E-3</v>
       </c>
     </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="560" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B560" s="6" t="s">
         <v>7</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>1.1249375179446333E-3</v>
       </c>
     </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B561" s="9" t="s">
         <v>7</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1.6550449122136616E-3</v>
       </c>
     </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B562" s="6" t="s">
         <v>7</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>8.4332106870324943E-4</v>
       </c>
     </row>
-    <row r="563" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B563" s="9" t="s">
         <v>7</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>1.7630222270256779E-3</v>
       </c>
     </row>
-    <row r="564" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B564" s="6" t="s">
         <v>7</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>1.2656181978612172E-3</v>
       </c>
     </row>
-    <row r="565" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B565" s="9" t="s">
         <v>7</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>1.3571614339846676E-3</v>
       </c>
     </row>
-    <row r="566" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B566" s="6" t="s">
         <v>7</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>1.3985762152512106E-3</v>
       </c>
     </row>
-    <row r="567" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B567" s="9" t="s">
         <v>7</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>2.0394623929658419E-3</v>
       </c>
     </row>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B568" s="6" t="s">
         <v>7</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>1.8601819449866495E-3</v>
       </c>
     </row>
-    <row r="569" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B569" s="9" t="s">
         <v>7</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>2.7424662277235048E-3</v>
       </c>
     </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B570" s="6" t="s">
         <v>7</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>2.7614218539251376E-3</v>
       </c>
     </row>
-    <row r="571" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B571" s="9" t="s">
         <v>7</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>1.3198055089656585E-3</v>
       </c>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B572" s="6" t="s">
         <v>7</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>1.0558489220293093E-3</v>
       </c>
     </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B573" s="9" t="s">
         <v>7</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1.7243186172570708E-3</v>
       </c>
     </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B574" s="6" t="s">
         <v>7</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>1.2989694449140837E-3</v>
       </c>
     </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B575" s="9" t="s">
         <v>7</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>1.2630086106408904E-3</v>
       </c>
     </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B576" s="6" t="s">
         <v>7</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1.3577799693638803E-3</v>
       </c>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B577" s="9" t="s">
         <v>7</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>2.0059621556391505E-3</v>
       </c>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B578" s="6" t="s">
         <v>7</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>1.7544552862807461E-3</v>
       </c>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B579" s="9" t="s">
         <v>7</v>
       </c>
@@ -14120,12 +14120,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14273,15 +14270,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1A2404-9E53-4912-BBFD-0EB88DCB36F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19F124D-D069-43AF-B43C-7C1DC3CD8DEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14305,17 +14313,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19F124D-D069-43AF-B43C-7C1DC3CD8DEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1A2404-9E53-4912-BBFD-0EB88DCB36F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d792d246-d363-40e2-82bc-6f0655128b68}" enabled="1" method="Standard" siteId="{372ee9e0-9ce0-4033-a64a-c07073a91ecd}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>